--- a/data/trans_camb/P27A_12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P27A_12-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +680,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +695,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +710,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -671,6 +719,36 @@
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -685,7 +763,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,7 +778,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -715,7 +793,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -724,6 +802,36 @@
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -738,7 +846,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,7 +861,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -768,7 +876,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -777,6 +885,36 @@
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,22 +1016,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -878,17 +1046,47 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,22 +1099,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,85; -0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,17 +1129,47 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,71; -0,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,22 +1182,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-61,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -984,17 +1212,47 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-79,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-60,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,86; -0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,44; -0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-44,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-37,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-87,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-69,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-63,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-51,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1601,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-93,67; 132,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-93,27; 123,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1616,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 62,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 53,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,15 +1631,45 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-93,3; 2,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-85,82; 21,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 0,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,47; -2,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 5,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,85; -2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -0,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -3,52</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-48,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-20,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-39,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-43,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1937,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,64; 32,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,09; 87,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1952,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,44; 29,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 158,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,15 +1967,45 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-68,75; -1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,53; 81,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-11,27</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 5,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 9,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,85; -6,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 4,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,09; -9,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 3,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,69; -8,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1655,12 +2273,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 80,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 128,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +2288,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 41,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 83,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,15 +2303,45 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 39,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 75,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-18,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-20,87</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-5,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-19,7</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 3,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 9,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -12,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 3,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-26,92; -15,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,01; -0,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -15,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-30,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-25,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-19,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-27,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1871,12 +2609,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 26,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 69,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +2624,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-50,2; 14,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,42; 21,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,15 +2639,45 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-47,06; -2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,2; 23,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,18; -4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; -0,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,22; -6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,98; -5,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-28,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-28,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-28,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2945,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 36,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2960,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-47,4; -2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 24,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,33 +2975,70 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-42,44; -8,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-24,11; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
